--- a/biology/Zoologie/Eupsophus_septentrionalis/Eupsophus_septentrionalis.xlsx
+++ b/biology/Zoologie/Eupsophus_septentrionalis/Eupsophus_septentrionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eupsophus septentrionalis est une espèce d'amphibiens de la famille des Alsodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eupsophus septentrionalis est une espèce d'amphibiens de la famille des Alsodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans la réserve Nationale Los Queules dans la province de Concepción et des environs de la réserve nationale Los Ruiles dans la province de Cauquenes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chili. Elle se rencontre dans la réserve Nationale Los Queules dans la province de Concepción et des environs de la réserve nationale Los Ruiles dans la province de Cauquenes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ibarra-Vidal, Ortiz &amp; Torres-Pérez, 2004 : Eupsophus septentrionalis n. sp. nueva especie leptodactylidae (Amphibia) de Chile central. Boletín de la Sociedad de Biología de Concepción, vol. 75, p. 91-102.</t>
         </is>
